--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>271999.3992265643</v>
+        <v>270033.5218003611</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>228.0767087417152</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>75.94183614770405</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>73.33328333039272</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9853964926202</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>160.1989433021659</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>366.9260724090111</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9260724090137</v>
+        <v>320.5836856156474</v>
       </c>
       <c r="G5" t="n">
-        <v>14.84782975053752</v>
+        <v>14.84782975053754</v>
       </c>
       <c r="H5" t="n">
-        <v>334.8159779715828</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.1044908246057</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>119.3462584401472</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>366.9260724090137</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>366.9260724090111</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>106.2414827740919</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1001200512375</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>81.01651298742912</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>85.04586258645362</v>
+        <v>85.04586258645394</v>
       </c>
       <c r="S6" t="n">
-        <v>167.1621765020568</v>
+        <v>3.111441797777579</v>
       </c>
       <c r="T6" t="n">
         <v>199.1836675285792</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9253691130818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.93242357221141</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>168.1182932842151</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29.02411585146275</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>129.6408700613167</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>142.1811178655293</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>87.03432203660844</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U10" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>169.4345470513639</v>
       </c>
       <c r="C13" t="n">
-        <v>156.8493879680545</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0100359697639</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6915092090628</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>188.4909732587352</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.3873581368308</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>166.2414651091354</v>
       </c>
       <c r="V13" t="n">
-        <v>76.93157877850534</v>
+        <v>241.7402101932547</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.1255652060177</v>
       </c>
       <c r="X13" t="n">
         <v>215.3122222584638</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="14">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.9125797667588</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>35.65017256498067</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>241.7402101932546</v>
@@ -1828,10 +1828,10 @@
         <v>276.1255652060176</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>396.478612611138</v>
       </c>
       <c r="G17" t="n">
-        <v>401.6908603532261</v>
+        <v>401.6908603532266</v>
       </c>
       <c r="H17" t="n">
         <v>296.1574440492783</v>
       </c>
       <c r="I17" t="n">
-        <v>76.15360292176761</v>
+        <v>76.15360292176764</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T17" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U17" t="n">
         <v>240.6910642547562</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D19" t="n">
-        <v>14.15178073151439</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H19" t="n">
-        <v>139.0100359697638</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S19" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.8429477387573</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>210.6935914708309</v>
       </c>
       <c r="W19" t="n">
-        <v>276.1255652060176</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.3364085329071</v>
+        <v>372.3364085329072</v>
       </c>
       <c r="C20" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D20" t="n">
-        <v>344.2856084901095</v>
+        <v>344.2856084901096</v>
       </c>
       <c r="E20" t="n">
-        <v>371.5329369416883</v>
+        <v>371.5329369416884</v>
       </c>
       <c r="F20" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G20" t="n">
-        <v>401.690860353226</v>
+        <v>401.6908603532261</v>
       </c>
       <c r="H20" t="n">
-        <v>296.1574440492782</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I20" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176766</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T20" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U20" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V20" t="n">
-        <v>317.3548253395614</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W20" t="n">
-        <v>338.8435355868396</v>
+        <v>338.8435355868399</v>
       </c>
       <c r="X20" t="n">
-        <v>359.3336675478972</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.8405055254801</v>
+        <v>375.8405055254802</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.4345470513638</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>83.87925363311891</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T22" t="n">
-        <v>211.3873581368306</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.8429477387573</v>
       </c>
       <c r="V22" t="n">
-        <v>241.7402101932545</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W22" t="n">
-        <v>276.1255652060175</v>
+        <v>245.3808945010303</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>371.5329369416883</v>
       </c>
       <c r="F23" t="n">
-        <v>396.4786126111396</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G23" t="n">
         <v>401.690860353226</v>
@@ -2336,7 +2336,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I23" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176763</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T23" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863884</v>
       </c>
       <c r="U23" t="n">
         <v>240.6910642547562</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G25" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I25" t="n">
-        <v>96.29355805511332</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.0633886642566</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>211.3873581368306</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.1255652060175</v>
+        <v>274.1243704553566</v>
       </c>
       <c r="X25" t="n">
         <v>215.3122222584637</v>
@@ -2570,10 +2570,10 @@
         <v>401.690860353226</v>
       </c>
       <c r="H26" t="n">
-        <v>296.1574440492798</v>
+        <v>296.1574440492782</v>
       </c>
       <c r="I26" t="n">
-        <v>76.15360292176763</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>338.8435355868396</v>
       </c>
       <c r="X26" t="n">
-        <v>359.3336675478956</v>
+        <v>359.3336675478972</v>
       </c>
       <c r="Y26" t="n">
         <v>375.8405055254801</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>6.359993135338494</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>188.4909732587351</v>
       </c>
       <c r="T28" t="n">
-        <v>211.3873581368307</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V28" t="n">
-        <v>200.5431264739526</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X28" t="n">
         <v>215.3122222584637</v>
@@ -2846,7 +2846,7 @@
         <v>198.6271876863865</v>
       </c>
       <c r="U29" t="n">
-        <v>240.6910642547563</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V29" t="n">
         <v>317.3548253395615</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G31" t="n">
-        <v>28.61655725801798</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>169.1513209742884</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>276.1255652060176</v>
       </c>
       <c r="X31" t="n">
-        <v>215.3122222584638</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>368.0586321885765</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.0882934837995</v>
+        <v>397.4130840088955</v>
       </c>
       <c r="H32" t="n">
         <v>306.5548771798517</v>
@@ -3086,10 +3086,10 @@
         <v>180.4453536434808</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>257.1091147282861</v>
       </c>
       <c r="W32" t="n">
-        <v>278.5978249755642</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D34" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E34" t="n">
-        <v>75.79081890472035</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F34" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G34" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H34" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I34" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S34" t="n">
         <v>128.2452626474597</v>
@@ -3266,22 +3266,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>294.6297480291587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>284.0398978788342</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>367.2551605973578</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>336.2329019998626</v>
       </c>
       <c r="G35" t="n">
         <v>412.0882934837995</v>
       </c>
       <c r="H35" t="n">
-        <v>306.5548771798517</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I35" t="n">
         <v>86.55103605234106</v>
@@ -3424,25 +3424,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C37" t="n">
-        <v>96.60367735677904</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D37" t="n">
-        <v>77.97232927636357</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E37" t="n">
-        <v>75.79081890472038</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F37" t="n">
-        <v>74.77790428108246</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G37" t="n">
-        <v>95.90594668534079</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H37" t="n">
-        <v>78.76432535848848</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I37" t="n">
-        <v>41.44579859778737</v>
+        <v>41.44579859778735</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.81767805298124</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S37" t="n">
-        <v>128.2452626474598</v>
+        <v>128.2452626474597</v>
       </c>
       <c r="T37" t="n">
         <v>151.1416475255553</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.0906979216318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>350.5976822961038</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>284.0398978788342</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.0882934837995</v>
+        <v>397.4130840088951</v>
       </c>
       <c r="H38" t="n">
         <v>306.5548771798517</v>
@@ -3557,7 +3557,7 @@
         <v>209.0246208169599</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0884973853296</v>
+        <v>180.4453536434809</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>315.5947949142048</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C40" t="n">
-        <v>96.60367735677904</v>
+        <v>96.60367735677906</v>
       </c>
       <c r="D40" t="n">
-        <v>77.97232927636357</v>
+        <v>77.97232927636358</v>
       </c>
       <c r="E40" t="n">
-        <v>75.79081890472038</v>
+        <v>75.7908189047204</v>
       </c>
       <c r="F40" t="n">
-        <v>74.77790428108246</v>
+        <v>74.77790428108247</v>
       </c>
       <c r="G40" t="n">
-        <v>95.90594668534079</v>
+        <v>95.90594668534081</v>
       </c>
       <c r="H40" t="n">
-        <v>78.76432535848846</v>
+        <v>78.76432535848849</v>
       </c>
       <c r="I40" t="n">
-        <v>41.44579859778737</v>
+        <v>41.44579859778739</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.81767805298124</v>
+        <v>41.81767805298125</v>
       </c>
       <c r="S40" t="n">
-        <v>128.2452626474597</v>
+        <v>128.2452626474598</v>
       </c>
       <c r="T40" t="n">
         <v>151.1416475255553</v>
       </c>
       <c r="U40" t="n">
-        <v>215.5972371274819</v>
+        <v>215.597237127482</v>
       </c>
       <c r="V40" t="n">
         <v>181.4944995819792</v>
@@ -3724,7 +3724,7 @@
         <v>215.8798545947422</v>
       </c>
       <c r="X40" t="n">
-        <v>155.0665116471883</v>
+        <v>155.0665116471884</v>
       </c>
       <c r="Y40" t="n">
         <v>147.941509610246</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>350.5976822961038</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.0882934837995</v>
+        <v>397.413084008896</v>
       </c>
       <c r="H41" t="n">
         <v>306.5548771798517</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.12778248033703</v>
+        <v>65.12778248033709</v>
       </c>
       <c r="T41" t="n">
         <v>209.0246208169599</v>
       </c>
       <c r="U41" t="n">
-        <v>180.4453536434808</v>
+        <v>180.4453536434809</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C43" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677906</v>
       </c>
       <c r="D43" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636358</v>
       </c>
       <c r="E43" t="n">
-        <v>75.79081890472035</v>
+        <v>75.7908189047204</v>
       </c>
       <c r="F43" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108247</v>
       </c>
       <c r="G43" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534081</v>
       </c>
       <c r="H43" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848849</v>
       </c>
       <c r="I43" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778739</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298125</v>
       </c>
       <c r="S43" t="n">
-        <v>128.2452626474597</v>
+        <v>128.2452626474598</v>
       </c>
       <c r="T43" t="n">
         <v>151.1416475255553</v>
       </c>
       <c r="U43" t="n">
-        <v>215.5972371274819</v>
+        <v>215.597237127482</v>
       </c>
       <c r="V43" t="n">
         <v>181.4944995819792</v>
@@ -3961,7 +3961,7 @@
         <v>215.8798545947422</v>
       </c>
       <c r="X43" t="n">
-        <v>155.0665116471883</v>
+        <v>155.0665116471884</v>
       </c>
       <c r="Y43" t="n">
         <v>147.941509610246</v>
@@ -3980,13 +3980,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>340.0078321457792</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>336.2329019998626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>412.0882934837995</v>
@@ -4028,10 +4028,10 @@
         <v>135.7709262221859</v>
       </c>
       <c r="T44" t="n">
-        <v>209.0246208169599</v>
+        <v>138.3814770751111</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0884973853296</v>
+        <v>236.4132879104267</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60367735677903</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D46" t="n">
-        <v>77.97232927636355</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E46" t="n">
-        <v>75.79081890472037</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F46" t="n">
-        <v>74.77790428108244</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G46" t="n">
-        <v>95.90594668534078</v>
+        <v>95.90594668534077</v>
       </c>
       <c r="H46" t="n">
-        <v>78.76432535848846</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I46" t="n">
-        <v>41.44579859778736</v>
+        <v>41.44579859778734</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.81767805298122</v>
+        <v>41.81767805298121</v>
       </c>
       <c r="S46" t="n">
         <v>128.2452626474597</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.7341079359765</v>
+        <v>672.0084928939</v>
       </c>
       <c r="C2" t="n">
-        <v>546.7341079359765</v>
+        <v>672.0084928939</v>
       </c>
       <c r="D2" t="n">
+        <v>672.0084928939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>393.0625194571773</v>
+      </c>
+      <c r="F2" t="n">
         <v>316.353594055456</v>
       </c>
-      <c r="E2" t="n">
-        <v>316.353594055456</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37.40762061873335</v>
-      </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618843</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="V2" t="n">
-        <v>825.6800813726991</v>
+        <v>672.0084928939</v>
       </c>
       <c r="W2" t="n">
-        <v>546.7341079359765</v>
+        <v>672.0084928939</v>
       </c>
       <c r="X2" t="n">
-        <v>546.7341079359765</v>
+        <v>672.0084928939</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.7341079359765</v>
+        <v>672.0084928939</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>415.5444100572715</v>
+        <v>543.394254134402</v>
       </c>
       <c r="C3" t="n">
-        <v>415.5444100572715</v>
+        <v>368.941224853275</v>
       </c>
       <c r="D3" t="n">
-        <v>415.5444100572715</v>
+        <v>368.941224853275</v>
       </c>
       <c r="E3" t="n">
-        <v>256.306955051816</v>
+        <v>368.941224853275</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
         <v>109.772397078701</v>
@@ -4410,19 +4410,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>45.18387750277316</v>
       </c>
       <c r="L3" t="n">
-        <v>159.4923828364511</v>
+        <v>291.3393440954741</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635175</v>
+        <v>564.734292660806</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288494</v>
+        <v>838.1292412261379</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121332</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>858.548018494547</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U3" t="n">
-        <v>858.548018494547</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V3" t="n">
-        <v>623.3959102628044</v>
+        <v>751.2457543399348</v>
       </c>
       <c r="W3" t="n">
-        <v>623.3959102628044</v>
+        <v>751.2457543399348</v>
       </c>
       <c r="X3" t="n">
-        <v>415.5444100572715</v>
+        <v>543.394254134402</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.5444100572715</v>
+        <v>543.394254134402</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="C4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="D4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="E4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="F4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="G4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="H4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="I4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="J4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="K4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>1104.626054809422</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="X4" t="n">
-        <v>1104.626054809422</v>
+        <v>37.17560255650359</v>
       </c>
       <c r="Y4" t="n">
-        <v>942.8089403627895</v>
+        <v>37.17560255650359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>753.1822475413413</v>
+        <v>726.4394968905673</v>
       </c>
       <c r="C5" t="n">
-        <v>753.1822475413413</v>
+        <v>726.4394968905673</v>
       </c>
       <c r="D5" t="n">
-        <v>753.1822475413413</v>
+        <v>368.1737982838168</v>
       </c>
       <c r="E5" t="n">
-        <v>753.1822475413413</v>
+        <v>368.1737982838168</v>
       </c>
       <c r="F5" t="n">
-        <v>382.5498511686002</v>
+        <v>44.35189362154669</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5520433397744</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="H5" t="n">
-        <v>29.3540857927211</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="I5" t="n">
-        <v>29.3540857927211</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="J5" t="n">
-        <v>55.74791993830877</v>
+        <v>55.7479199383078</v>
       </c>
       <c r="K5" t="n">
-        <v>216.0502396745443</v>
+        <v>216.0502396745422</v>
       </c>
       <c r="L5" t="n">
-        <v>467.1960697503096</v>
+        <v>467.1960697503061</v>
       </c>
       <c r="M5" t="n">
-        <v>763.2507418033949</v>
+        <v>763.2507418033899</v>
       </c>
       <c r="N5" t="n">
-        <v>1049.463890420117</v>
+        <v>1049.46389042011</v>
       </c>
       <c r="O5" t="n">
-        <v>1274.539212778873</v>
+        <v>1274.539212778865</v>
       </c>
       <c r="P5" t="n">
-        <v>1428.961410202915</v>
+        <v>1428.961410202906</v>
       </c>
       <c r="Q5" t="n">
-        <v>1467.704289636055</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="R5" t="n">
-        <v>1467.704289636055</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="S5" t="n">
-        <v>1467.704289636055</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="T5" t="n">
-        <v>1244.366420116251</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="U5" t="n">
-        <v>1244.366420116251</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="V5" t="n">
-        <v>1244.366420116251</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="W5" t="n">
-        <v>1123.814643914082</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="X5" t="n">
-        <v>753.1822475413413</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="Y5" t="n">
-        <v>753.1822475413413</v>
+        <v>1097.071893263306</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>596.1412718604272</v>
+        <v>111.1889473961847</v>
       </c>
       <c r="C6" t="n">
-        <v>421.6882425793002</v>
+        <v>111.1889473961847</v>
       </c>
       <c r="D6" t="n">
-        <v>314.3736135145609</v>
+        <v>111.1889473961847</v>
       </c>
       <c r="E6" t="n">
-        <v>314.3736135145609</v>
+        <v>111.1889473961847</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8390555414459</v>
+        <v>111.1889473961847</v>
       </c>
       <c r="G6" t="n">
-        <v>29.3540857927211</v>
+        <v>111.1889473961847</v>
       </c>
       <c r="H6" t="n">
-        <v>29.3540857927211</v>
+        <v>111.1889473961847</v>
       </c>
       <c r="I6" t="n">
-        <v>29.3540857927211</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="J6" t="n">
-        <v>51.38069291096453</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="K6" t="n">
-        <v>51.38069291096453</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="L6" t="n">
-        <v>333.6634491650419</v>
+        <v>106.2958301794963</v>
       </c>
       <c r="M6" t="n">
-        <v>696.9202608499655</v>
+        <v>469.5526418644173</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.177072534889</v>
+        <v>832.8094535493383</v>
       </c>
       <c r="O6" t="n">
-        <v>1366.261747591977</v>
+        <v>1138.894128606425</v>
       </c>
       <c r="P6" t="n">
-        <v>1467.704289636055</v>
+        <v>1367.550997563959</v>
       </c>
       <c r="Q6" t="n">
-        <v>1467.704289636055</v>
+        <v>1467.704289636044</v>
       </c>
       <c r="R6" t="n">
-        <v>1381.799377932566</v>
+        <v>1381.799377932556</v>
       </c>
       <c r="S6" t="n">
-        <v>1212.948694597156</v>
+        <v>1378.65650742975</v>
       </c>
       <c r="T6" t="n">
-        <v>1011.753070830914</v>
+        <v>1177.460883663508</v>
       </c>
       <c r="U6" t="n">
-        <v>1011.753070830914</v>
+        <v>949.253440114941</v>
       </c>
       <c r="V6" t="n">
-        <v>1011.753070830914</v>
+        <v>949.253440114941</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.753070830914</v>
+        <v>695.0160833867394</v>
       </c>
       <c r="X6" t="n">
-        <v>803.9015706253811</v>
+        <v>487.1645831812066</v>
       </c>
       <c r="Y6" t="n">
-        <v>596.1412718604272</v>
+        <v>279.4042844162527</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
       <c r="C7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
       <c r="D7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
       <c r="E7" t="n">
-        <v>109.0838065727326</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="F7" t="n">
-        <v>109.0838065727326</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0838065727326</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="H7" t="n">
-        <v>109.0838065727326</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="I7" t="n">
-        <v>109.0838065727326</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="J7" t="n">
-        <v>29.3540857927211</v>
+        <v>29.35408579272089</v>
       </c>
       <c r="K7" t="n">
-        <v>30.77780568487001</v>
+        <v>30.77780568486934</v>
       </c>
       <c r="L7" t="n">
-        <v>88.12611158017977</v>
+        <v>88.12611158017849</v>
       </c>
       <c r="M7" t="n">
-        <v>158.9809824154759</v>
+        <v>158.980982415474</v>
       </c>
       <c r="N7" t="n">
-        <v>233.585699212585</v>
+        <v>233.5856992125824</v>
       </c>
       <c r="O7" t="n">
-        <v>286.478934783546</v>
+        <v>286.4789347835429</v>
       </c>
       <c r="P7" t="n">
-        <v>308.2175531744275</v>
+        <v>308.2175531744238</v>
       </c>
       <c r="Q7" t="n">
-        <v>308.2175531744275</v>
+        <v>308.2175531744238</v>
       </c>
       <c r="R7" t="n">
-        <v>138.4010953115839</v>
+        <v>308.2175531744238</v>
       </c>
       <c r="S7" t="n">
-        <v>138.4010953115839</v>
+        <v>308.2175531744238</v>
       </c>
       <c r="T7" t="n">
-        <v>109.0838065727326</v>
+        <v>308.2175531744238</v>
       </c>
       <c r="U7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
       <c r="V7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
       <c r="W7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
       <c r="X7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
       <c r="Y7" t="n">
-        <v>109.0838065727326</v>
+        <v>177.267179375114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1679.782215419422</v>
+        <v>935.7408973472311</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.819698479011</v>
+        <v>935.7408973472311</v>
       </c>
       <c r="D8" t="n">
-        <v>952.5539998722602</v>
+        <v>935.7408973472311</v>
       </c>
       <c r="E8" t="n">
-        <v>566.7657472740159</v>
+        <v>935.7408973472311</v>
       </c>
       <c r="F8" t="n">
-        <v>155.7798424844083</v>
+        <v>524.7549925576236</v>
       </c>
       <c r="G8" t="n">
-        <v>141.8564384229992</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>141.8564384229992</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.782215419422</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4981,22 +4981,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5027,49 +5027,49 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F11" t="n">
-        <v>876.0187316112645</v>
+        <v>876.0187316112639</v>
       </c>
       <c r="G11" t="n">
-        <v>470.2703878201269</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H11" t="n">
-        <v>171.1214544370174</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I11" t="n">
-        <v>94.19862320290832</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J11" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K11" t="n">
-        <v>860.2779741677791</v>
+        <v>860.2779741677795</v>
       </c>
       <c r="L11" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M11" t="n">
-        <v>2318.304158787661</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N11" t="n">
         <v>3091.984352769974</v>
       </c>
       <c r="O11" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P11" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q11" t="n">
-        <v>4658.401460222605</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R11" t="n">
         <v>4709.931160145416</v>
       </c>
       <c r="S11" t="n">
-        <v>4583.291268133687</v>
+        <v>4583.291268133686</v>
       </c>
       <c r="T11" t="n">
-        <v>4382.657745218145</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U11" t="n">
         <v>4139.535458092128</v>
@@ -5115,22 +5115,22 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19862320290834</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J12" t="n">
-        <v>254.3254551313249</v>
+        <v>129.4953301443202</v>
       </c>
       <c r="K12" t="n">
-        <v>654.6285586383411</v>
+        <v>267.9778490088836</v>
       </c>
       <c r="L12" t="n">
-        <v>1171.084450185075</v>
+        <v>781.1607541011131</v>
       </c>
       <c r="M12" t="n">
-        <v>1461.792134282671</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N12" t="n">
-        <v>1774.602630666366</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O12" t="n">
         <v>2038.543327167808</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.4941691054311</v>
+        <v>233.8128049075942</v>
       </c>
       <c r="C13" t="n">
-        <v>495.060443885174</v>
+        <v>233.8128049075942</v>
       </c>
       <c r="D13" t="n">
-        <v>495.060443885174</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="E13" t="n">
-        <v>495.060443885174</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="F13" t="n">
-        <v>495.060443885174</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="G13" t="n">
-        <v>337.3314971209152</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H13" t="n">
-        <v>196.9173193736789</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I13" t="n">
-        <v>94.19862320290834</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J13" t="n">
         <v>112.9886256529933</v>
       </c>
       <c r="K13" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L13" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M13" t="n">
-        <v>790.1587150323423</v>
+        <v>790.1587150323421</v>
       </c>
       <c r="N13" t="n">
-        <v>1062.584871907533</v>
+        <v>1062.584871907532</v>
       </c>
       <c r="O13" t="n">
         <v>1298.984009272058</v>
@@ -5224,25 +5224,25 @@
         <v>1523.753441311389</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.358518827819</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="T13" t="n">
-        <v>1119.835934851222</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.835934851222</v>
+        <v>1355.83276948398</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.127269418388</v>
+        <v>1111.650738985743</v>
       </c>
       <c r="W13" t="n">
-        <v>1042.127269418388</v>
+        <v>832.7360266564318</v>
       </c>
       <c r="X13" t="n">
-        <v>824.6401762280209</v>
+        <v>615.2489334660643</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.6401762280209</v>
+        <v>404.9588120301841</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2358.01127371568</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C14" t="n">
-        <v>1999.551214482918</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D14" t="n">
-        <v>1651.787973583817</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E14" t="n">
-        <v>1276.502178693223</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F14" t="n">
-        <v>876.0187316112651</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G14" t="n">
-        <v>470.2703878201269</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H14" t="n">
-        <v>171.1214544370171</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I14" t="n">
         <v>94.19862320290831</v>
@@ -5279,7 +5279,7 @@
         <v>352.4625266553644</v>
       </c>
       <c r="K14" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677797</v>
       </c>
       <c r="L14" t="n">
         <v>1542.544568462677</v>
@@ -5291,7 +5291,7 @@
         <v>3091.984352769974</v>
       </c>
       <c r="O14" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P14" t="n">
         <v>4324.639697485003</v>
@@ -5303,22 +5303,22 @@
         <v>4709.931160145416</v>
       </c>
       <c r="S14" t="n">
-        <v>4583.291268133687</v>
+        <v>4583.291268133686</v>
       </c>
       <c r="T14" t="n">
-        <v>4382.657745218145</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U14" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V14" t="n">
-        <v>3818.975028456208</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W14" t="n">
-        <v>3476.708830893744</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X14" t="n">
-        <v>3113.745530340314</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y14" t="n">
         <v>2734.108656072151</v>
@@ -5355,10 +5355,10 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J15" t="n">
-        <v>129.4953301443202</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K15" t="n">
-        <v>529.7984336513364</v>
+        <v>654.6285586383411</v>
       </c>
       <c r="L15" t="n">
         <v>963.1079353265845</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.1204209471091</v>
+        <v>508.9292661867871</v>
       </c>
       <c r="C16" t="n">
-        <v>195.1204209471091</v>
+        <v>508.9292661867871</v>
       </c>
       <c r="D16" t="n">
-        <v>94.19862320290831</v>
+        <v>369.3150844821013</v>
       </c>
       <c r="E16" t="n">
-        <v>94.19862320290831</v>
+        <v>333.304809163939</v>
       </c>
       <c r="F16" t="n">
-        <v>94.19862320290831</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="G16" t="n">
-        <v>94.19862320290831</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="H16" t="n">
-        <v>94.19862320290831</v>
+        <v>196.9173193736788</v>
       </c>
       <c r="I16" t="n">
         <v>94.19862320290831</v>
@@ -5440,10 +5440,10 @@
         <v>267.0813524192175</v>
       </c>
       <c r="L16" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M16" t="n">
-        <v>790.1587150323425</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N16" t="n">
         <v>1062.584871907533</v>
@@ -5464,22 +5464,22 @@
         <v>1420.659109327292</v>
       </c>
       <c r="T16" t="n">
-        <v>1207.136525350696</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="U16" t="n">
-        <v>928.507285210537</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="V16" t="n">
-        <v>684.3252547123</v>
+        <v>1176.477078829055</v>
       </c>
       <c r="W16" t="n">
-        <v>405.4105423829893</v>
+        <v>897.5623664997445</v>
       </c>
       <c r="X16" t="n">
-        <v>405.4105423829893</v>
+        <v>680.0752733093771</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.1204209471091</v>
+        <v>680.0752733093771</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2358.01127371568</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C17" t="n">
-        <v>1999.551214482918</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.787973583818</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E17" t="n">
-        <v>1276.502178693223</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F17" t="n">
-        <v>876.0187316112657</v>
+        <v>876.0187316112645</v>
       </c>
       <c r="G17" t="n">
-        <v>470.2703878201282</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H17" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I17" t="n">
         <v>94.19862320290831</v>
@@ -5522,10 +5522,10 @@
         <v>1542.544568462677</v>
       </c>
       <c r="M17" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N17" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O17" t="n">
         <v>3777.360983129468</v>
@@ -5546,19 +5546,19 @@
         <v>4382.657745218144</v>
       </c>
       <c r="U17" t="n">
-        <v>4139.535458092129</v>
+        <v>4139.535458092128</v>
       </c>
       <c r="V17" t="n">
-        <v>3818.975028456208</v>
+        <v>3818.975028456207</v>
       </c>
       <c r="W17" t="n">
-        <v>3476.708830893744</v>
+        <v>3476.708830893743</v>
       </c>
       <c r="X17" t="n">
-        <v>3113.745530340314</v>
+        <v>3113.745530340313</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.108656072152</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J18" t="n">
-        <v>129.4953301443202</v>
+        <v>254.3254551313249</v>
       </c>
       <c r="K18" t="n">
-        <v>529.7984336513364</v>
+        <v>654.6285586383411</v>
       </c>
       <c r="L18" t="n">
-        <v>762.3278112241838</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M18" t="n">
-        <v>1053.035495321779</v>
+        <v>1544.997562159209</v>
       </c>
       <c r="N18" t="n">
-        <v>1365.845991705474</v>
+        <v>1857.808058542904</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.00752603209</v>
+        <v>2121.748755044346</v>
       </c>
       <c r="P18" t="n">
-        <v>2331.7882791076</v>
+        <v>2338.347565384828</v>
       </c>
       <c r="Q18" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R18" t="n">
         <v>2625.087782060009</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>248.9075289617752</v>
+        <v>547.7719310621674</v>
       </c>
       <c r="C19" t="n">
-        <v>248.9075289617752</v>
+        <v>389.3382058419103</v>
       </c>
       <c r="D19" t="n">
-        <v>234.6128009501445</v>
+        <v>389.3382058419103</v>
       </c>
       <c r="E19" t="n">
-        <v>234.6128009501445</v>
+        <v>251.9275699671671</v>
       </c>
       <c r="F19" t="n">
-        <v>234.6128009501445</v>
+        <v>251.9275699671671</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6128009501445</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H19" t="n">
         <v>94.19862320290831</v>
@@ -5671,52 +5671,52 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9886256529934</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K19" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L19" t="n">
-        <v>516.9148004639833</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M19" t="n">
-        <v>790.1587150323427</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N19" t="n">
         <v>1062.584871907533</v>
       </c>
       <c r="O19" t="n">
-        <v>1298.984009272059</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P19" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q19" t="n">
         <v>1523.75344131139</v>
       </c>
       <c r="R19" t="n">
-        <v>1420.659109327293</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="S19" t="n">
-        <v>1230.264186843722</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="T19" t="n">
-        <v>1016.741602867125</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="U19" t="n">
-        <v>738.112362726966</v>
+        <v>1142.029869187133</v>
       </c>
       <c r="V19" t="n">
-        <v>738.112362726966</v>
+        <v>929.2080596206374</v>
       </c>
       <c r="W19" t="n">
-        <v>459.1976503976554</v>
+        <v>929.2080596206374</v>
       </c>
       <c r="X19" t="n">
-        <v>459.1976503976554</v>
+        <v>929.2080596206374</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.9075289617752</v>
+        <v>718.9179381847572</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2358.011273715678</v>
       </c>
       <c r="C20" t="n">
-        <v>1999.551214482916</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D20" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E20" t="n">
-        <v>1276.502178693221</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F20" t="n">
-        <v>876.0187316112638</v>
+        <v>876.018731611264</v>
       </c>
       <c r="G20" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H20" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I20" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J20" t="n">
-        <v>352.4625266553635</v>
+        <v>352.4625266553653</v>
       </c>
       <c r="K20" t="n">
-        <v>860.2779741677788</v>
+        <v>860.2779741677805</v>
       </c>
       <c r="L20" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M20" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N20" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O20" t="n">
         <v>3777.360983129468</v>
       </c>
       <c r="P20" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485003</v>
       </c>
       <c r="Q20" t="n">
         <v>4658.401460222604</v>
@@ -5789,10 +5789,10 @@
         <v>3818.975028456207</v>
       </c>
       <c r="W20" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X20" t="n">
-        <v>3113.745530340311</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y20" t="n">
         <v>2734.10865607215</v>
@@ -5835,13 +5835,13 @@
         <v>654.628558638341</v>
       </c>
       <c r="L21" t="n">
-        <v>887.1579362111884</v>
+        <v>963.1079353265848</v>
       </c>
       <c r="M21" t="n">
-        <v>1177.865620308784</v>
+        <v>1253.81561942418</v>
       </c>
       <c r="N21" t="n">
-        <v>1490.676116692479</v>
+        <v>1566.626115807875</v>
       </c>
       <c r="O21" t="n">
         <v>1830.566812309317</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>337.3588672444974</v>
+        <v>391.541751671853</v>
       </c>
       <c r="C22" t="n">
-        <v>178.9251420242405</v>
+        <v>391.541751671853</v>
       </c>
       <c r="D22" t="n">
-        <v>178.9251420242405</v>
+        <v>251.9275699671671</v>
       </c>
       <c r="E22" t="n">
-        <v>178.9251420242405</v>
+        <v>251.9275699671671</v>
       </c>
       <c r="F22" t="n">
-        <v>178.9251420242405</v>
+        <v>251.9275699671671</v>
       </c>
       <c r="G22" t="n">
-        <v>178.9251420242405</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H22" t="n">
-        <v>178.9251420242405</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I22" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9886256529934</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K22" t="n">
         <v>267.0813524192175</v>
       </c>
       <c r="L22" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M22" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N22" t="n">
         <v>1062.584871907533</v>
@@ -5935,25 +5935,25 @@
         <v>1523.75344131139</v>
       </c>
       <c r="S22" t="n">
-        <v>1523.75344131139</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="T22" t="n">
-        <v>1310.230857334794</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="U22" t="n">
-        <v>1031.601617194635</v>
+        <v>1054.72927868766</v>
       </c>
       <c r="V22" t="n">
-        <v>787.4195866963978</v>
+        <v>810.5472481894228</v>
       </c>
       <c r="W22" t="n">
-        <v>508.5048743670872</v>
+        <v>562.6877587944427</v>
       </c>
       <c r="X22" t="n">
-        <v>508.5048743670872</v>
+        <v>562.6877587944427</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.5048743670872</v>
+        <v>562.6877587944427</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2358.01127371568</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C23" t="n">
-        <v>1999.551214482918</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D23" t="n">
-        <v>1651.787973583817</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E23" t="n">
-        <v>1276.502178693223</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F23" t="n">
         <v>876.0187316112638</v>
@@ -5987,19 +5987,19 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J23" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553653</v>
       </c>
       <c r="K23" t="n">
-        <v>860.2779741677792</v>
+        <v>860.2779741677805</v>
       </c>
       <c r="L23" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M23" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N23" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O23" t="n">
         <v>3777.360983129468</v>
@@ -6017,22 +6017,22 @@
         <v>4583.291268133686</v>
       </c>
       <c r="T23" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218142</v>
       </c>
       <c r="U23" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092126</v>
       </c>
       <c r="V23" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456205</v>
       </c>
       <c r="W23" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893741</v>
       </c>
       <c r="X23" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340311</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="24">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>349.1937902248573</v>
+        <v>750.7438044906041</v>
       </c>
       <c r="C25" t="n">
-        <v>349.1937902248573</v>
+        <v>750.7438044906041</v>
       </c>
       <c r="D25" t="n">
-        <v>349.1937902248573</v>
+        <v>611.1296227859184</v>
       </c>
       <c r="E25" t="n">
-        <v>349.1937902248573</v>
+        <v>473.7189869111752</v>
       </c>
       <c r="F25" t="n">
-        <v>349.1937902248573</v>
+        <v>337.3314971209147</v>
       </c>
       <c r="G25" t="n">
-        <v>191.4648434605986</v>
+        <v>337.3314971209147</v>
       </c>
       <c r="H25" t="n">
-        <v>191.4648434605986</v>
+        <v>196.9173193736785</v>
       </c>
       <c r="I25" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J25" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K25" t="n">
         <v>267.0813524192176</v>
       </c>
       <c r="L25" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639833</v>
       </c>
       <c r="M25" t="n">
         <v>790.1587150323426</v>
@@ -6160,37 +6160,37 @@
         <v>1062.584871907533</v>
       </c>
       <c r="O25" t="n">
-        <v>1298.984009272059</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P25" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q25" t="n">
-        <v>1523.75344131139</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="R25" t="n">
-        <v>1420.659109327293</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="S25" t="n">
-        <v>1230.264186843722</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="T25" t="n">
-        <v>1016.741602867125</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.741602867125</v>
+        <v>1245.124201171231</v>
       </c>
       <c r="V25" t="n">
-        <v>1016.741602867125</v>
+        <v>1245.124201171231</v>
       </c>
       <c r="W25" t="n">
-        <v>737.8268905378143</v>
+        <v>968.2308976809716</v>
       </c>
       <c r="X25" t="n">
-        <v>520.339797347447</v>
+        <v>750.7438044906041</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.339797347447</v>
+        <v>750.7438044906041</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2358.01127371568</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C26" t="n">
-        <v>1999.551214482918</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D26" t="n">
-        <v>1651.787973583817</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E26" t="n">
-        <v>1276.502178693223</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F26" t="n">
-        <v>876.0187316112654</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G26" t="n">
-        <v>470.270387820128</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H26" t="n">
         <v>171.121454437017</v>
@@ -6224,13 +6224,13 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J26" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2779741677801</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L26" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M26" t="n">
         <v>2318.304158787662</v>
@@ -6239,10 +6239,10 @@
         <v>3091.984352769974</v>
       </c>
       <c r="O26" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P26" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q26" t="n">
         <v>4658.401460222604</v>
@@ -6266,10 +6266,10 @@
         <v>3476.708830893743</v>
       </c>
       <c r="X26" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340311</v>
       </c>
       <c r="Y26" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>654.628558638341</v>
       </c>
       <c r="L27" t="n">
-        <v>956.548649049357</v>
+        <v>963.1079353265848</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.256333146953</v>
+        <v>1253.81561942418</v>
       </c>
       <c r="N27" t="n">
-        <v>1560.066829530647</v>
+        <v>1566.626115807875</v>
       </c>
       <c r="O27" t="n">
-        <v>1824.00752603209</v>
+        <v>1830.566812309317</v>
       </c>
       <c r="P27" t="n">
-        <v>2331.7882791076</v>
+        <v>2338.347565384828</v>
       </c>
       <c r="Q27" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R27" t="n">
         <v>2625.087782060009</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>528.6340199181116</v>
+        <v>100.6228586931488</v>
       </c>
       <c r="C28" t="n">
-        <v>370.2002946978545</v>
+        <v>100.6228586931488</v>
       </c>
       <c r="D28" t="n">
-        <v>230.5861129931687</v>
+        <v>100.6228586931488</v>
       </c>
       <c r="E28" t="n">
-        <v>230.5861129931687</v>
+        <v>100.6228586931488</v>
       </c>
       <c r="F28" t="n">
-        <v>94.19862320290832</v>
+        <v>100.6228586931488</v>
       </c>
       <c r="G28" t="n">
-        <v>94.19862320290832</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H28" t="n">
-        <v>94.19862320290832</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I28" t="n">
-        <v>94.19862320290832</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J28" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K28" t="n">
         <v>267.0813524192175</v>
       </c>
       <c r="L28" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M28" t="n">
         <v>790.1587150323426</v>
@@ -6400,7 +6400,7 @@
         <v>1298.984009272058</v>
       </c>
       <c r="P28" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q28" t="n">
         <v>1523.75344131139</v>
@@ -6409,25 +6409,25 @@
         <v>1523.75344131139</v>
       </c>
       <c r="S28" t="n">
-        <v>1333.35851882782</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="T28" t="n">
         <v>1119.835934851223</v>
       </c>
       <c r="U28" t="n">
-        <v>1119.835934851223</v>
+        <v>841.2066947110637</v>
       </c>
       <c r="V28" t="n">
-        <v>917.2671202310687</v>
+        <v>597.0246642128268</v>
       </c>
       <c r="W28" t="n">
-        <v>917.2671202310687</v>
+        <v>318.1099518835161</v>
       </c>
       <c r="X28" t="n">
-        <v>699.7800270407013</v>
+        <v>100.6228586931488</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.7800270407013</v>
+        <v>100.6228586931488</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C29" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D29" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E29" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F29" t="n">
-        <v>876.0187316112642</v>
+        <v>876.0187316112634</v>
       </c>
       <c r="G29" t="n">
-        <v>470.2703878201265</v>
+        <v>470.270387820126</v>
       </c>
       <c r="H29" t="n">
         <v>171.1214544370171</v>
@@ -6461,19 +6461,19 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J29" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K29" t="n">
-        <v>860.2779741677805</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L29" t="n">
-        <v>1542.544568462679</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M29" t="n">
-        <v>2318.304158787664</v>
+        <v>2318.304158787663</v>
       </c>
       <c r="N29" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O29" t="n">
         <v>3777.360983129468</v>
@@ -6491,22 +6491,22 @@
         <v>4583.291268133686</v>
       </c>
       <c r="T29" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U29" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V29" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W29" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X29" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y29" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>654.628558638341</v>
       </c>
       <c r="L30" t="n">
-        <v>956.548649049357</v>
+        <v>1254.289878061613</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.256333146953</v>
+        <v>1544.997562159209</v>
       </c>
       <c r="N30" t="n">
-        <v>1560.066829530647</v>
+        <v>1857.808058542903</v>
       </c>
       <c r="O30" t="n">
-        <v>1824.00752603209</v>
+        <v>2121.748755044346</v>
       </c>
       <c r="P30" t="n">
-        <v>2331.7882791076</v>
+        <v>2338.347565384828</v>
       </c>
       <c r="Q30" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R30" t="n">
         <v>2625.087782060009</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.1042365948457</v>
+        <v>230.5861129931689</v>
       </c>
       <c r="C31" t="n">
-        <v>123.1042365948457</v>
+        <v>230.5861129931689</v>
       </c>
       <c r="D31" t="n">
-        <v>123.1042365948457</v>
+        <v>230.5861129931689</v>
       </c>
       <c r="E31" t="n">
-        <v>123.1042365948457</v>
+        <v>230.5861129931689</v>
       </c>
       <c r="F31" t="n">
-        <v>123.1042365948457</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="G31" t="n">
         <v>94.19862320290831</v>
@@ -6619,16 +6619,16 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J31" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K31" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L31" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M31" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N31" t="n">
         <v>1062.584871907533</v>
@@ -6643,28 +6643,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R31" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="S31" t="n">
-        <v>1523.75344131139</v>
+        <v>1249.799189151243</v>
       </c>
       <c r="T31" t="n">
-        <v>1523.75344131139</v>
+        <v>1249.799189151243</v>
       </c>
       <c r="U31" t="n">
-        <v>1245.124201171231</v>
+        <v>971.1699490110841</v>
       </c>
       <c r="V31" t="n">
-        <v>1000.942170672994</v>
+        <v>726.987918512847</v>
       </c>
       <c r="W31" t="n">
-        <v>722.0274583436832</v>
+        <v>448.0732061835363</v>
       </c>
       <c r="X31" t="n">
-        <v>504.5403651533157</v>
+        <v>230.5861129931689</v>
       </c>
       <c r="Y31" t="n">
-        <v>294.2502437174355</v>
+        <v>230.5861129931689</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2431.528477669228</v>
+        <v>2416.705033755183</v>
       </c>
       <c r="C32" t="n">
-        <v>2062.565960728816</v>
+        <v>2047.742516814772</v>
       </c>
       <c r="D32" t="n">
-        <v>1704.300262122066</v>
+        <v>1689.476818208021</v>
       </c>
       <c r="E32" t="n">
-        <v>1318.512009523821</v>
+        <v>1303.688565609777</v>
       </c>
       <c r="F32" t="n">
-        <v>907.5261047342137</v>
+        <v>892.7026608201693</v>
       </c>
       <c r="G32" t="n">
         <v>491.2753032354263</v>
@@ -6698,25 +6698,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J32" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K32" t="n">
-        <v>860.2779741677805</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L32" t="n">
-        <v>1542.544568462679</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M32" t="n">
-        <v>2318.304158787664</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N32" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O32" t="n">
         <v>3777.360983129468</v>
       </c>
       <c r="P32" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q32" t="n">
         <v>4658.401460222604</v>
@@ -6734,7 +6734,7 @@
         <v>4179.384795819529</v>
       </c>
       <c r="V32" t="n">
-        <v>3848.321908475958</v>
+        <v>3919.678619326311</v>
       </c>
       <c r="W32" t="n">
         <v>3566.909964056197</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.926704476203</v>
+        <v>640.9267044762026</v>
       </c>
       <c r="C34" t="n">
-        <v>543.3472323986484</v>
+        <v>543.3472323986481</v>
       </c>
       <c r="D34" t="n">
-        <v>464.587303836665</v>
+        <v>464.5873038366647</v>
       </c>
       <c r="E34" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046239</v>
       </c>
       <c r="F34" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570658</v>
       </c>
       <c r="G34" t="n">
-        <v>215.6229908355101</v>
+        <v>215.6229908355095</v>
       </c>
       <c r="H34" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309757</v>
       </c>
       <c r="I34" t="n">
-        <v>94.19862320290832</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J34" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581555</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295421</v>
       </c>
       <c r="L34" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794703</v>
       </c>
       <c r="M34" t="n">
-        <v>1028.731729052993</v>
+        <v>1028.731729052992</v>
       </c>
       <c r="N34" t="n">
-        <v>1360.801139433346</v>
+        <v>1360.801139433345</v>
       </c>
       <c r="O34" t="n">
-        <v>1656.843530303034</v>
+        <v>1656.843530303033</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q34" t="n">
-        <v>2000.899469352691</v>
+        <v>2000.89946935269</v>
       </c>
       <c r="R34" t="n">
         <v>1958.659390511295</v>
@@ -6886,22 +6886,22 @@
         <v>1829.118721170427</v>
       </c>
       <c r="T34" t="n">
-        <v>1676.450390336533</v>
+        <v>1676.450390336532</v>
       </c>
       <c r="U34" t="n">
         <v>1458.675403339076</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.347625983542</v>
+        <v>1275.347625983541</v>
       </c>
       <c r="W34" t="n">
         <v>1057.287166796933</v>
       </c>
       <c r="X34" t="n">
-        <v>900.6543267492682</v>
+        <v>900.6543267492677</v>
       </c>
       <c r="Y34" t="n">
-        <v>751.2184584560904</v>
+        <v>751.21845845609</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2273.991612054479</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.385805964419</v>
+        <v>1905.029095114067</v>
       </c>
       <c r="D35" t="n">
-        <v>1689.476818208021</v>
+        <v>1546.763396507316</v>
       </c>
       <c r="E35" t="n">
-        <v>1318.512009523821</v>
+        <v>1175.798587823117</v>
       </c>
       <c r="F35" t="n">
-        <v>907.5261047342137</v>
+        <v>836.1693938838614</v>
       </c>
       <c r="G35" t="n">
-        <v>491.2753032354263</v>
+        <v>419.918592385074</v>
       </c>
       <c r="H35" t="n">
         <v>181.623912144667</v>
@@ -6935,25 +6935,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J35" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K35" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677805</v>
       </c>
       <c r="L35" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462679</v>
       </c>
       <c r="M35" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787664</v>
       </c>
       <c r="N35" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769975</v>
       </c>
       <c r="O35" t="n">
         <v>3777.360983129468</v>
       </c>
       <c r="P35" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485003</v>
       </c>
       <c r="Q35" t="n">
         <v>4658.401460222604</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.9267044762031</v>
+        <v>640.9267044762038</v>
       </c>
       <c r="C37" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986492</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366658</v>
       </c>
       <c r="E37" t="n">
-        <v>388.0309211046243</v>
+        <v>388.030921104625</v>
       </c>
       <c r="F37" t="n">
-        <v>312.4976844570663</v>
+        <v>312.497684457067</v>
       </c>
       <c r="G37" t="n">
-        <v>215.6229908355099</v>
+        <v>215.6229908355102</v>
       </c>
       <c r="H37" t="n">
-        <v>136.0630662309762</v>
+        <v>136.0630662309763</v>
       </c>
       <c r="I37" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J37" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581558</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295426</v>
       </c>
       <c r="L37" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M37" t="n">
         <v>1028.731729052993</v>
@@ -7111,7 +7111,7 @@
         <v>1656.843530303034</v>
       </c>
       <c r="P37" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q37" t="n">
         <v>2000.899469352691</v>
@@ -7126,19 +7126,19 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U37" t="n">
-        <v>1458.675403339076</v>
+        <v>1458.675403339077</v>
       </c>
       <c r="V37" t="n">
         <v>1275.347625983542</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.287166796933</v>
+        <v>1057.287166796934</v>
       </c>
       <c r="X37" t="n">
-        <v>900.6543267492684</v>
+        <v>900.6543267492689</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2184584560905</v>
+        <v>751.2184584560912</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.348322904831</v>
+        <v>2416.705033755183</v>
       </c>
       <c r="C38" t="n">
-        <v>1991.209249878464</v>
+        <v>2047.742516814771</v>
       </c>
       <c r="D38" t="n">
-        <v>1704.300262122066</v>
+        <v>1689.476818208021</v>
       </c>
       <c r="E38" t="n">
-        <v>1318.512009523821</v>
+        <v>1303.688565609776</v>
       </c>
       <c r="F38" t="n">
-        <v>907.5261047342137</v>
+        <v>892.7026608201688</v>
       </c>
       <c r="G38" t="n">
         <v>491.2753032354263</v>
@@ -7172,25 +7172,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J38" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K38" t="n">
-        <v>860.2779741677805</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L38" t="n">
-        <v>1542.544568462679</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M38" t="n">
-        <v>2318.304158787664</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N38" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O38" t="n">
         <v>3777.360983129468</v>
       </c>
       <c r="P38" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q38" t="n">
         <v>4658.401460222604</v>
@@ -7205,19 +7205,19 @@
         <v>4361.652829802843</v>
       </c>
       <c r="U38" t="n">
-        <v>4108.028084969177</v>
+        <v>4179.384795819529</v>
       </c>
       <c r="V38" t="n">
-        <v>3776.965197625606</v>
+        <v>3848.321908475958</v>
       </c>
       <c r="W38" t="n">
-        <v>3424.196542355492</v>
+        <v>3495.553253205844</v>
       </c>
       <c r="X38" t="n">
-        <v>3050.730784094412</v>
+        <v>3122.087494944764</v>
       </c>
       <c r="Y38" t="n">
-        <v>2660.591452118601</v>
+        <v>2803.304873819305</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J39" t="n">
-        <v>254.3254551313249</v>
+        <v>179.7537309885845</v>
       </c>
       <c r="K39" t="n">
-        <v>654.628558638341</v>
+        <v>318.2362498531479</v>
       </c>
       <c r="L39" t="n">
-        <v>963.1079353265848</v>
+        <v>550.7656274259953</v>
       </c>
       <c r="M39" t="n">
-        <v>1253.81561942418</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N39" t="n">
-        <v>1566.626115807875</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O39" t="n">
-        <v>1830.566812309317</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P39" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q39" t="n">
         <v>2625.087782060009</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.9267044762033</v>
+        <v>640.9267044762032</v>
       </c>
       <c r="C40" t="n">
-        <v>543.3472323986488</v>
+        <v>543.3472323986487</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5873038366654</v>
+        <v>464.5873038366652</v>
       </c>
       <c r="E40" t="n">
-        <v>388.0309211046246</v>
+        <v>388.0309211046244</v>
       </c>
       <c r="F40" t="n">
-        <v>312.4976844570666</v>
+        <v>312.4976844570663</v>
       </c>
       <c r="G40" t="n">
         <v>215.6229908355102</v>
@@ -7327,16 +7327,16 @@
         <v>136.0630662309764</v>
       </c>
       <c r="I40" t="n">
-        <v>94.19862320290832</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J40" t="n">
-        <v>172.6318791581559</v>
+        <v>172.6318791581561</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295429</v>
       </c>
       <c r="L40" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794711</v>
       </c>
       <c r="M40" t="n">
         <v>1028.731729052993</v>
@@ -7363,19 +7363,19 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U40" t="n">
-        <v>1458.675403339077</v>
+        <v>1458.675403339076</v>
       </c>
       <c r="V40" t="n">
         <v>1275.347625983542</v>
       </c>
       <c r="W40" t="n">
-        <v>1057.287166796934</v>
+        <v>1057.287166796933</v>
       </c>
       <c r="X40" t="n">
-        <v>900.6543267492686</v>
+        <v>900.6543267492684</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2184584560907</v>
+        <v>751.2184584560906</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2416.705033755184</v>
       </c>
       <c r="C41" t="n">
-        <v>2062.565960728816</v>
+        <v>2047.742516814772</v>
       </c>
       <c r="D41" t="n">
-        <v>1704.300262122066</v>
+        <v>1689.476818208022</v>
       </c>
       <c r="E41" t="n">
-        <v>1318.512009523821</v>
+        <v>1303.688565609777</v>
       </c>
       <c r="F41" t="n">
-        <v>907.5261047342137</v>
+        <v>892.7026608201697</v>
       </c>
       <c r="G41" t="n">
         <v>491.2753032354263</v>
@@ -7409,13 +7409,13 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J41" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K41" t="n">
         <v>860.2779741677793</v>
       </c>
       <c r="L41" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M41" t="n">
         <v>2318.304158787662</v>
@@ -7424,13 +7424,13 @@
         <v>3091.984352769974</v>
       </c>
       <c r="O41" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P41" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q41" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R41" t="n">
         <v>4709.931160145416</v>
@@ -7488,25 +7488,25 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J42" t="n">
-        <v>254.3254551313249</v>
+        <v>179.7537309885845</v>
       </c>
       <c r="K42" t="n">
-        <v>654.628558638341</v>
+        <v>318.2362498531479</v>
       </c>
       <c r="L42" t="n">
-        <v>887.1579362111884</v>
+        <v>550.7656274259953</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.865620308784</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N42" t="n">
-        <v>1490.676116692479</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O42" t="n">
-        <v>1830.566812309317</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P42" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q42" t="n">
         <v>2625.087782060009</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.9267044762028</v>
+        <v>640.9267044762034</v>
       </c>
       <c r="C43" t="n">
-        <v>543.3472323986482</v>
+        <v>543.3472323986488</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5873038366648</v>
+        <v>464.5873038366654</v>
       </c>
       <c r="E43" t="n">
-        <v>388.030921104624</v>
+        <v>388.0309211046246</v>
       </c>
       <c r="F43" t="n">
-        <v>312.497684457066</v>
+        <v>312.4976844570666</v>
       </c>
       <c r="G43" t="n">
-        <v>215.6229908355097</v>
+        <v>215.6229908355102</v>
       </c>
       <c r="H43" t="n">
         <v>136.0630662309763</v>
@@ -7570,10 +7570,10 @@
         <v>172.631879158156</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295425</v>
       </c>
       <c r="L43" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M43" t="n">
         <v>1028.731729052993</v>
@@ -7591,28 +7591,28 @@
         <v>2000.899469352691</v>
       </c>
       <c r="R43" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S43" t="n">
         <v>1829.118721170427</v>
       </c>
       <c r="T43" t="n">
-        <v>1676.450390336532</v>
+        <v>1676.450390336533</v>
       </c>
       <c r="U43" t="n">
-        <v>1458.675403339076</v>
+        <v>1458.675403339077</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.347625983541</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W43" t="n">
-        <v>1057.287166796933</v>
+        <v>1057.287166796934</v>
       </c>
       <c r="X43" t="n">
-        <v>900.654326749268</v>
+        <v>900.6543267492686</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2184584560902</v>
+        <v>751.2184584560908</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.348322904831</v>
+        <v>2431.528477669228</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.385805964419</v>
+        <v>2062.565960728816</v>
       </c>
       <c r="D44" t="n">
-        <v>1632.943551271713</v>
+        <v>1704.300262122066</v>
       </c>
       <c r="E44" t="n">
-        <v>1247.155298673469</v>
+        <v>1318.512009523821</v>
       </c>
       <c r="F44" t="n">
         <v>907.5261047342137</v>
@@ -7646,19 +7646,19 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J44" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K44" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L44" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M44" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N44" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O44" t="n">
         <v>3777.360983129468</v>
@@ -7676,22 +7676,22 @@
         <v>4572.788810426036</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.652829802843</v>
+        <v>4433.009540653196</v>
       </c>
       <c r="U44" t="n">
-        <v>4108.028084969177</v>
+        <v>4194.208239733573</v>
       </c>
       <c r="V44" t="n">
-        <v>3776.965197625606</v>
+        <v>3863.145352390003</v>
       </c>
       <c r="W44" t="n">
-        <v>3424.196542355492</v>
+        <v>3510.376697119889</v>
       </c>
       <c r="X44" t="n">
-        <v>3050.730784094412</v>
+        <v>3136.910938858809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2660.591452118601</v>
+        <v>2746.771606882997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J45" t="n">
-        <v>254.3254551313249</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K45" t="n">
-        <v>654.628558638341</v>
+        <v>267.9778490088835</v>
       </c>
       <c r="L45" t="n">
-        <v>956.548649049357</v>
+        <v>500.5072265817309</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.256333146953</v>
+        <v>1252.262923791826</v>
       </c>
       <c r="N45" t="n">
-        <v>1560.066829530647</v>
+        <v>2039.622370775639</v>
       </c>
       <c r="O45" t="n">
-        <v>1824.00752603209</v>
+        <v>2303.563067277081</v>
       </c>
       <c r="P45" t="n">
-        <v>2331.7882791076</v>
+        <v>2496.065679399054</v>
       </c>
       <c r="Q45" t="n">
-        <v>2618.528495782782</v>
+        <v>2625.087782060009</v>
       </c>
       <c r="R45" t="n">
         <v>2625.087782060009</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.9267044762033</v>
+        <v>640.9267044762032</v>
       </c>
       <c r="C46" t="n">
-        <v>543.3472323986488</v>
+        <v>543.3472323986487</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5873038366653</v>
+        <v>464.5873038366652</v>
       </c>
       <c r="E46" t="n">
-        <v>388.0309211046246</v>
+        <v>388.0309211046245</v>
       </c>
       <c r="F46" t="n">
         <v>312.4976844570665</v>
@@ -7804,7 +7804,7 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J46" t="n">
-        <v>172.6318791581559</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K46" t="n">
         <v>386.3678594295428</v>
@@ -7813,19 +7813,19 @@
         <v>695.844560979471</v>
       </c>
       <c r="M46" t="n">
-        <v>1028.731729052992</v>
+        <v>1028.731729052993</v>
       </c>
       <c r="N46" t="n">
-        <v>1360.801139433345</v>
+        <v>1360.801139433346</v>
       </c>
       <c r="O46" t="n">
         <v>1656.843530303034</v>
       </c>
       <c r="P46" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2000.89946935269</v>
+        <v>2000.899469352692</v>
       </c>
       <c r="R46" t="n">
         <v>1958.659390511295</v>
@@ -7846,10 +7846,10 @@
         <v>1057.287166796933</v>
       </c>
       <c r="X46" t="n">
-        <v>900.6543267492683</v>
+        <v>900.6543267492684</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2184584560907</v>
+        <v>751.2184584560906</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>149.0021003118938</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>333.5098607968288</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>103.8419372411735</v>
       </c>
       <c r="K6" t="n">
-        <v>98.53814304666764</v>
+        <v>98.53814304666842</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>163.425181801135</v>
       </c>
       <c r="M6" t="n">
-        <v>447.3888293192514</v>
+        <v>447.38882931925</v>
       </c>
       <c r="N6" t="n">
-        <v>434.9642522866766</v>
+        <v>434.9642522866752</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>189.9634485253337</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.9123462488939</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7944585594814</v>
+        <v>283.4884116357394</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>202.8082061640411</v>
+        <v>76.71717082363227</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928331</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298221</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>196.1826644698717</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>24.33959416010998</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715141</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>76.71717082363267</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>76.71717082363273</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>70.09162912946317</v>
+        <v>76.71717082363267</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715142</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>70.09162912946317</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>24.33959416011049</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.76606145885287</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>76.71717082363267</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>38.89612811715142</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298315</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.76606145885287</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>76.71717082363273</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>38.89612811715142</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492834</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>70.09162912946317</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>50.76606145885316</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>38.89612811715142</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>156.8493879680545</v>
       </c>
       <c r="D13" t="n">
-        <v>138.218039887639</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>136.0365295159958</v>
@@ -23428,13 +23428,13 @@
         <v>135.0236148923579</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>102.0633886642567</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>188.4909732587352</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>211.3873581368308</v>
       </c>
       <c r="U13" t="n">
-        <v>275.8429477387574</v>
+        <v>109.601482629622</v>
       </c>
       <c r="V13" t="n">
-        <v>164.8086314147493</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.1255652060177</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>156.8493879680544</v>
       </c>
       <c r="D16" t="n">
-        <v>38.30546012088016</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0365295159958</v>
+        <v>100.3863569510151</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>156.1516572966162</v>
@@ -23671,7 +23671,7 @@
         <v>139.0100359697639</v>
       </c>
       <c r="I16" t="n">
-        <v>101.6915092090628</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>188.4909732587351</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>124.0662591561245</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E19" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>135.0236148923578</v>
       </c>
       <c r="G19" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I19" t="n">
         <v>101.6915092090627</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.7402101932546</v>
+        <v>31.04661872242372</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X19" t="n">
         <v>215.3122222584637</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D22" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>136.0365295159957</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F22" t="n">
         <v>135.0236148923578</v>
       </c>
       <c r="G22" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.0100359697638</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I22" t="n">
-        <v>17.8122555759438</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S22" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>30.74467070498734</v>
       </c>
       <c r="X22" t="n">
         <v>215.3122222584637</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1872202215213</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C25" t="n">
         <v>156.8493879680544</v>
       </c>
       <c r="D25" t="n">
-        <v>138.2180398876389</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H25" t="n">
-        <v>139.0100359697638</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.397951153949379</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U25" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>241.7402101932545</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.00119475066096</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.1872202215213</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E28" t="n">
         <v>136.0365295159957</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G28" t="n">
-        <v>156.1516572966162</v>
+        <v>149.7916641612776</v>
       </c>
       <c r="H28" t="n">
         <v>139.0100359697638</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>41.19708371930198</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.1872202215214</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C31" t="n">
-        <v>156.8493879680545</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D31" t="n">
         <v>138.218039887639</v>
@@ -24847,10 +24847,10 @@
         <v>136.0365295159958</v>
       </c>
       <c r="F31" t="n">
-        <v>135.0236148923579</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>127.5351000385982</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H31" t="n">
         <v>139.0100359697639</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.0633886642566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.4909732587352</v>
+        <v>19.33965228444674</v>
       </c>
       <c r="T31" t="n">
         <v>211.3873581368307</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="32">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="E2" t="n">
         <v>314628.1709453168</v>
@@ -26326,22 +26326,22 @@
         <v>314628.1709453167</v>
       </c>
       <c r="G2" t="n">
-        <v>314628.1709453168</v>
+        <v>314628.1709453171</v>
       </c>
       <c r="H2" t="n">
-        <v>314628.1709453167</v>
+        <v>314628.1709453169</v>
       </c>
       <c r="I2" t="n">
         <v>314628.1709453168</v>
       </c>
       <c r="J2" t="n">
-        <v>314628.1709453169</v>
+        <v>314628.1709453168</v>
       </c>
       <c r="K2" t="n">
-        <v>314628.1709453168</v>
+        <v>314628.1709453167</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="M2" t="n">
         <v>328416.7079457132</v>
@@ -26350,10 +26350,10 @@
         <v>328416.7079457132</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
     </row>
     <row r="3">
@@ -26366,34 +26366,34 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>100476.7337101067</v>
+        <v>100476.7337101038</v>
       </c>
       <c r="D3" t="n">
-        <v>322070.2142555291</v>
+        <v>322070.2142555318</v>
       </c>
       <c r="E3" t="n">
-        <v>497476.0416545638</v>
+        <v>497476.0416545637</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>4.973799150320701e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>80572.64137559773</v>
+        <v>80572.64137559776</v>
       </c>
       <c r="K3" t="n">
-        <v>23361.17978521524</v>
+        <v>23361.17978521456</v>
       </c>
       <c r="L3" t="n">
-        <v>125986.9220456739</v>
+        <v>125986.9220456745</v>
       </c>
       <c r="M3" t="n">
         <v>125398.3356886933</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8317.94650445868</v>
+        <v>8317.946504458681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>283356.3453933829</v>
       </c>
       <c r="C4" t="n">
-        <v>254493.5842743089</v>
+        <v>254493.5842743098</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26430,34 +26430,34 @@
         <v>25768.29375740653</v>
       </c>
       <c r="G4" t="n">
-        <v>25768.29375740656</v>
+        <v>25768.2937574065</v>
       </c>
       <c r="H4" t="n">
         <v>25768.29375740651</v>
       </c>
       <c r="I4" t="n">
+        <v>25768.29375740649</v>
+      </c>
+      <c r="J4" t="n">
         <v>25768.29375740651</v>
       </c>
-      <c r="J4" t="n">
-        <v>25768.2937574065</v>
-      </c>
       <c r="K4" t="n">
-        <v>25768.29375740652</v>
+        <v>25768.29375740653</v>
       </c>
       <c r="L4" t="n">
+        <v>45592.1349252704</v>
+      </c>
+      <c r="M4" t="n">
         <v>45592.13492527041</v>
       </c>
-      <c r="M4" t="n">
-        <v>45592.13492527039</v>
-      </c>
       <c r="N4" t="n">
-        <v>45592.13492527039</v>
+        <v>45592.13492527041</v>
       </c>
       <c r="O4" t="n">
-        <v>45592.13492527039</v>
+        <v>45592.13492527038</v>
       </c>
       <c r="P4" t="n">
-        <v>45592.1349252704</v>
+        <v>45592.13492527037</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58403.55628293926</v>
+        <v>58403.55628293905</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>89896.1818109895</v>
+        <v>89896.18181098948</v>
       </c>
       <c r="F5" t="n">
         <v>89896.18181098948</v>
@@ -26485,13 +26485,13 @@
         <v>89896.18181098948</v>
       </c>
       <c r="H5" t="n">
+        <v>89896.18181098948</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89896.18181098948</v>
+      </c>
+      <c r="J5" t="n">
         <v>89896.1818109895</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89896.1818109895</v>
-      </c>
-      <c r="J5" t="n">
-        <v>89896.18181098948</v>
       </c>
       <c r="K5" t="n">
         <v>89896.18181098948</v>
@@ -26503,10 +26503,10 @@
         <v>94960.9784563688</v>
       </c>
       <c r="N5" t="n">
-        <v>94960.9784563688</v>
+        <v>94960.97845636879</v>
       </c>
       <c r="O5" t="n">
-        <v>94960.9784563688</v>
+        <v>94960.97845636879</v>
       </c>
       <c r="P5" t="n">
         <v>94960.9784563688</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132414.3584112629</v>
+        <v>-132414.3584112628</v>
       </c>
       <c r="C6" t="n">
-        <v>-84957.16632164166</v>
+        <v>-84957.16632163939</v>
       </c>
       <c r="D6" t="n">
-        <v>-233287.5426244478</v>
+        <v>-233287.5426244504</v>
       </c>
       <c r="E6" t="n">
-        <v>-298512.346277643</v>
+        <v>-298598.5246338954</v>
       </c>
       <c r="F6" t="n">
-        <v>198963.6953769207</v>
+        <v>198877.5170206682</v>
       </c>
       <c r="G6" t="n">
-        <v>198963.6953769207</v>
+        <v>198877.5170206687</v>
       </c>
       <c r="H6" t="n">
-        <v>198963.6953769207</v>
+        <v>198877.5170206684</v>
       </c>
       <c r="I6" t="n">
-        <v>198963.6953769208</v>
+        <v>198877.5170206684</v>
       </c>
       <c r="J6" t="n">
-        <v>118391.0540013232</v>
+        <v>118304.8756450705</v>
       </c>
       <c r="K6" t="n">
-        <v>175602.5155917055</v>
+        <v>175516.3372354537</v>
       </c>
       <c r="L6" t="n">
-        <v>61876.67251840005</v>
+        <v>61876.67251839941</v>
       </c>
       <c r="M6" t="n">
-        <v>62465.25887538072</v>
+        <v>62465.25887538078</v>
       </c>
       <c r="N6" t="n">
         <v>187863.594564074</v>
       </c>
       <c r="O6" t="n">
-        <v>179545.6480596153</v>
+        <v>179545.6480596155</v>
       </c>
       <c r="P6" t="n">
         <v>187863.5945640741</v>
@@ -26695,37 +26695,37 @@
         <v>10.39743313057333</v>
       </c>
       <c r="F2" t="n">
+        <v>10.3974331305734</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.3974331305734</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.3974331305734</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.39743313057344</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.39743313057339</v>
       </c>
-      <c r="G2" t="n">
-        <v>10.39743313057343</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.39743313057346</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10.39743313057346</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.39743313057338</v>
-      </c>
       <c r="L2" t="n">
+        <v>70.6431437418488</v>
+      </c>
+      <c r="M2" t="n">
+        <v>70.6431437418488</v>
+      </c>
+      <c r="N2" t="n">
+        <v>70.64314374184877</v>
+      </c>
+      <c r="O2" t="n">
+        <v>70.64314374184877</v>
+      </c>
+      <c r="P2" t="n">
         <v>70.64314374184882</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70.64314374184879</v>
-      </c>
-      <c r="N2" t="n">
-        <v>70.64314374184879</v>
-      </c>
-      <c r="O2" t="n">
-        <v>70.64314374184882</v>
-      </c>
-      <c r="P2" t="n">
-        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1583064436343</v>
+        <v>113.158306443632</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>366.9260724090137</v>
+        <v>366.9260724090111</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26917,25 +26917,25 @@
         <v>10.39743313057333</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057332</v>
+        <v>10.39743313057335</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.24571061127547</v>
+        <v>60.24571061127541</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>78.13704572450897</v>
+        <v>78.13704572450669</v>
       </c>
       <c r="D3" t="n">
-        <v>264.5853577734524</v>
+        <v>264.5853577734546</v>
       </c>
       <c r="E3" t="n">
         <v>421.8492885776382</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>90.76955870665832</v>
+        <v>90.76955870665569</v>
       </c>
       <c r="D4" t="n">
-        <v>307.3612003455419</v>
+        <v>307.3612003455445</v>
       </c>
       <c r="E4" t="n">
-        <v>503.1955172817985</v>
+        <v>503.1955172817983</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665832</v>
+        <v>90.76955870665569</v>
       </c>
       <c r="L4" t="n">
-        <v>307.3612003455419</v>
+        <v>307.3612003455445</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817985</v>
+        <v>503.1955172817983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>10.39743313057333</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057332</v>
+        <v>10.39743313057335</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665832</v>
+        <v>90.76955870665569</v>
       </c>
       <c r="L4" t="n">
-        <v>307.3612003455419</v>
+        <v>307.3612003455445</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817985</v>
+        <v>503.1955172817983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6063328789677</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>330.9342095940074</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27427,19 +27427,19 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>126.5278176417791</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>82.81519065680507</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>126.3240550344251</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.38571004992892</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>15.80776925446946</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>39.94997333269771</v>
+        <v>86.29236012606407</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.8159779715829</v>
       </c>
       <c r="I5" t="n">
-        <v>192.9380579757598</v>
+        <v>192.9380579757602</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>121.2935180732504</v>
+        <v>121.293518073251</v>
       </c>
       <c r="S5" t="n">
-        <v>198.6538589004792</v>
+        <v>198.6538589004795</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.1044908246057</v>
       </c>
       <c r="U5" t="n">
         <v>251.3092602866687</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>229.8947102772659</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>2.805028269455306</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>19.31186624704247</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>41.20358279054688</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.1001200512376</v>
       </c>
       <c r="H6" t="n">
         <v>109.8847405498089</v>
       </c>
       <c r="I6" t="n">
-        <v>81.01651298742895</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>164.0507347042793</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9253691130818</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.7869233960194</v>
       </c>
       <c r="H7" t="n">
-        <v>160.4129294959334</v>
+        <v>160.4129294959335</v>
       </c>
       <c r="I7" t="n">
-        <v>149.3139556204461</v>
+        <v>149.3139556204463</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.93242357221169</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.07513897870561</v>
+        <v>69.07513897870595</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>168.1182932842153</v>
       </c>
       <c r="S7" t="n">
         <v>220.4604591279158</v>
       </c>
       <c r="T7" t="n">
-        <v>198.0495981009416</v>
+        <v>227.0737139524043</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3078990312669</v>
+        <v>156.6670289699502</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.6030521552657</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.89699420825281</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U10" t="n">
-        <v>186.6211234951019</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="K16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="L16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="M16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="N16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="O16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="P16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="R16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.39743313057339</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.39743313057289</v>
       </c>
       <c r="H17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="K19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="L19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="M19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="N19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="O19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="P19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="R19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.39743313057343</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057306</v>
       </c>
       <c r="X20" t="n">
-        <v>10.39743313057187</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="K22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="L22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="M22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="N22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="O22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="P22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="R22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="C23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="D23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="E23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F23" t="n">
-        <v>10.39743313057187</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="G23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="H23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="I23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="T23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057147</v>
       </c>
       <c r="U23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="V23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="W23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="X23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="C25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="D25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="E25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="G25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="H25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="I25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="J25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="K25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="L25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="M25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="N25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="O25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="P25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="R25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="T25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="U25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="V25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="W25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="X25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057344</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="C26" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="D26" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="E26" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="F26" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="G26" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="H26" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="T26" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="U26" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="W26" t="n">
+        <v>10.39743313057346</v>
+      </c>
+      <c r="X26" t="n">
         <v>10.39743313057187</v>
       </c>
-      <c r="I26" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="T26" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="U26" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="V26" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="W26" t="n">
-        <v>10.39743313057344</v>
-      </c>
-      <c r="X26" t="n">
-        <v>10.39743313057344</v>
-      </c>
       <c r="Y26" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="C28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="D28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="E28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="F28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="G28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="H28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="I28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="J28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="K28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="L28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="M28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="N28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="O28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="P28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="R28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="T28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="U28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="V28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="W28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="X28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.39743313057344</v>
+        <v>10.39743313057346</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="C29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="D29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="E29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="F29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="G29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="H29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="I29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="T29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="U29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="V29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="W29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="X29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="C31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="D31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="E31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="F31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="G31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="H31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="I31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="J31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="K31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="L31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="M31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="N31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="O31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="P31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="R31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="S31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="T31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="U31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="V31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="W31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="X31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.39743313057338</v>
+        <v>10.39743313057339</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.67520947490408</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>14.67520947490397</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,13 +29803,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W32" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="35">
@@ -29986,22 +29986,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>14.67520947490397</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.64314374184879</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,13 +30220,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>14.6752094749038</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14.67520947490436</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>70.64314374184877</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="C40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="D40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="E40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="F40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="G40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="H40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="I40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="J40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="K40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="L40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="M40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="N40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="O40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="P40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="R40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="S40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="T40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="U40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="V40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="W40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="X40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.64314374184879</v>
+        <v>70.64314374184877</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>14.6752094749038</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>14.67520947490351</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="C43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="E43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="F43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="G43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="H43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="I43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="J43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="K43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="L43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="M43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="N43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="O43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="P43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="R43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="S43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="T43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="U43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="V43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="W43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="X43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184877</v>
       </c>
     </row>
     <row r="44">
@@ -30694,19 +30694,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>14.6752094749038</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>70.6431437418488</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30748,10 +30748,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>14.67520947490297</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4549077645975244</v>
+        <v>0.4549077645975153</v>
       </c>
       <c r="H5" t="n">
-        <v>4.658824144184398</v>
+        <v>4.658824144184305</v>
       </c>
       <c r="I5" t="n">
-        <v>17.53783159464608</v>
+        <v>17.53783159464572</v>
       </c>
       <c r="J5" t="n">
-        <v>38.60972788550917</v>
+        <v>38.6097278855084</v>
       </c>
       <c r="K5" t="n">
-        <v>57.86597356092239</v>
+        <v>57.86597356092123</v>
       </c>
       <c r="L5" t="n">
-        <v>71.7878570617239</v>
+        <v>71.78785706172246</v>
       </c>
       <c r="M5" t="n">
-        <v>79.87782302038512</v>
+        <v>79.87782302038352</v>
       </c>
       <c r="N5" t="n">
-        <v>81.17032970654785</v>
+        <v>81.17032970654621</v>
       </c>
       <c r="O5" t="n">
-        <v>76.6468406223312</v>
+        <v>76.64684062232966</v>
       </c>
       <c r="P5" t="n">
-        <v>65.41630518382981</v>
+        <v>65.4163051838285</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.12492086418095</v>
+        <v>49.12492086417996</v>
       </c>
       <c r="R5" t="n">
-        <v>28.57559986789927</v>
+        <v>28.5755998678987</v>
       </c>
       <c r="S5" t="n">
-        <v>10.3662106857661</v>
+        <v>10.36621068576589</v>
       </c>
       <c r="T5" t="n">
-        <v>1.991358739525664</v>
+        <v>1.991358739525624</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03639262116780195</v>
+        <v>0.03639262116780122</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2433971119731002</v>
+        <v>0.2433971119730953</v>
       </c>
       <c r="H6" t="n">
-        <v>2.350703686687573</v>
+        <v>2.350703686687526</v>
       </c>
       <c r="I6" t="n">
-        <v>8.380119863986126</v>
+        <v>8.380119863985957</v>
       </c>
       <c r="J6" t="n">
-        <v>22.99568942549365</v>
+        <v>22.99568942549319</v>
       </c>
       <c r="K6" t="n">
-        <v>39.30329592769136</v>
+        <v>39.30329592769057</v>
       </c>
       <c r="L6" t="n">
-        <v>52.84813170275581</v>
+        <v>52.84813170275475</v>
       </c>
       <c r="M6" t="n">
-        <v>61.67127701178068</v>
+        <v>61.67127701177944</v>
       </c>
       <c r="N6" t="n">
-        <v>63.30353220567047</v>
+        <v>63.3035322056692</v>
       </c>
       <c r="O6" t="n">
-        <v>57.91036461931915</v>
+        <v>57.91036461931798</v>
       </c>
       <c r="P6" t="n">
-        <v>46.47817307493349</v>
+        <v>46.47817307493256</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.06942783712767</v>
+        <v>31.06942783712704</v>
       </c>
       <c r="R6" t="n">
-        <v>15.11197156618951</v>
+        <v>15.1119715661892</v>
       </c>
       <c r="S6" t="n">
-        <v>4.520994601781046</v>
+        <v>4.520994601780956</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9810611662424517</v>
+        <v>0.9810611662424319</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01601296789296712</v>
+        <v>0.0160129678929668</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2040559624393405</v>
+        <v>0.2040559624393364</v>
       </c>
       <c r="H7" t="n">
-        <v>1.814243011506138</v>
+        <v>1.814243011506101</v>
       </c>
       <c r="I7" t="n">
-        <v>6.136519306812169</v>
+        <v>6.136519306812046</v>
       </c>
       <c r="J7" t="n">
-        <v>14.42675654446137</v>
+        <v>14.42675654446108</v>
       </c>
       <c r="K7" t="n">
-        <v>23.70759272704337</v>
+        <v>23.7075927270429</v>
       </c>
       <c r="L7" t="n">
-        <v>30.33755645211795</v>
+        <v>30.33755645211735</v>
       </c>
       <c r="M7" t="n">
-        <v>31.98669963946861</v>
+        <v>31.98669963946797</v>
       </c>
       <c r="N7" t="n">
-        <v>31.2261274158311</v>
+        <v>31.22612741583047</v>
       </c>
       <c r="O7" t="n">
-        <v>28.84238276369879</v>
+        <v>28.84238276369821</v>
       </c>
       <c r="P7" t="n">
-        <v>24.67964112993623</v>
+        <v>24.67964112993573</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.08690427298878</v>
+        <v>17.08690427298843</v>
       </c>
       <c r="R7" t="n">
-        <v>9.175098092954345</v>
+        <v>9.17509809295416</v>
       </c>
       <c r="S7" t="n">
-        <v>3.556138909056505</v>
+        <v>3.556138909056434</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8718754758771819</v>
+        <v>0.8718754758771644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01113032522396404</v>
+        <v>0.01113032522396382</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>23.32460243089366</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>210.4624139667338</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
         <v>276.1565137023554</v>
@@ -34793,7 +34793,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>26.66043853089666</v>
+        <v>26.66043853089588</v>
       </c>
       <c r="K5" t="n">
-        <v>161.9215350871066</v>
+        <v>161.9215350871054</v>
       </c>
       <c r="L5" t="n">
-        <v>253.6826566421871</v>
+        <v>253.6826566421857</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0451232859449</v>
+        <v>299.0451232859433</v>
       </c>
       <c r="N5" t="n">
-        <v>289.1041905219411</v>
+        <v>289.1041905219395</v>
       </c>
       <c r="O5" t="n">
-        <v>227.3488104633898</v>
+        <v>227.3488104633883</v>
       </c>
       <c r="P5" t="n">
-        <v>155.9820176000429</v>
+        <v>155.9820176000416</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.13422164963615</v>
+        <v>39.13422164963516</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>22.24909809923579</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>285.1340972263408</v>
+        <v>77.71893372401557</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9260724090137</v>
+        <v>366.9260724090111</v>
       </c>
       <c r="N6" t="n">
-        <v>366.9260724090137</v>
+        <v>366.9260724090111</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1764394516042</v>
+        <v>309.1764394516031</v>
       </c>
       <c r="P6" t="n">
-        <v>102.4672141859369</v>
+        <v>230.9665343005395</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>101.1649414869546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.438100901160521</v>
+        <v>1.438100901160045</v>
       </c>
       <c r="L7" t="n">
-        <v>57.92758171243409</v>
+        <v>57.92758171243349</v>
       </c>
       <c r="M7" t="n">
-        <v>71.5705766013092</v>
+        <v>71.57057660130856</v>
       </c>
       <c r="N7" t="n">
-        <v>75.35829979505969</v>
+        <v>75.35829979505907</v>
       </c>
       <c r="O7" t="n">
-        <v>53.42751067773847</v>
+        <v>53.42751067773789</v>
       </c>
       <c r="P7" t="n">
-        <v>21.95820039482971</v>
+        <v>21.95820039482922</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>161.7442746751683</v>
+        <v>35.65323933475946</v>
       </c>
       <c r="K12" t="n">
-        <v>404.3465691990063</v>
+        <v>139.8813321864277</v>
       </c>
       <c r="L12" t="n">
-        <v>521.6726177239738</v>
+        <v>518.3665708002318</v>
       </c>
       <c r="M12" t="n">
         <v>293.6441253511067</v>
@@ -35501,7 +35501,7 @@
         <v>315.9701983673685</v>
       </c>
       <c r="O12" t="n">
-        <v>266.606764142871</v>
+        <v>660.4690834196006</v>
       </c>
       <c r="P12" t="n">
         <v>512.9098515914252</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>35.65323933475946</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K15" t="n">
         <v>404.3465691990063</v>
       </c>
       <c r="L15" t="n">
-        <v>437.6863653285335</v>
+        <v>311.5953299881247</v>
       </c>
       <c r="M15" t="n">
         <v>293.6441253511067</v>
@@ -35823,7 +35823,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.97392575088246</v>
+        <v>44.97392575088247</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>689.1581760554524</v>
       </c>
       <c r="M17" t="n">
-        <v>783.5955457828135</v>
+        <v>783.5955457828129</v>
       </c>
       <c r="N17" t="n">
         <v>781.4951454366786</v>
@@ -35905,7 +35905,7 @@
         <v>337.133093674345</v>
       </c>
       <c r="R17" t="n">
-        <v>52.0502019422338</v>
+        <v>52.05020194223357</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.65323933475946</v>
+        <v>161.7442746751683</v>
       </c>
       <c r="K18" t="n">
         <v>404.3465691990063</v>
       </c>
       <c r="L18" t="n">
-        <v>234.8781591644924</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M18" t="n">
         <v>293.6441253511067</v>
@@ -35975,16 +35975,16 @@
         <v>315.9701983673685</v>
       </c>
       <c r="O18" t="n">
-        <v>462.7894286127428</v>
+        <v>266.606764142871</v>
       </c>
       <c r="P18" t="n">
-        <v>512.9098515914252</v>
+        <v>218.786677111598</v>
       </c>
       <c r="Q18" t="n">
         <v>289.636582500183</v>
       </c>
       <c r="R18" t="n">
-        <v>6.625541694169414</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.97980045463139</v>
+        <v>18.97980045463136</v>
       </c>
       <c r="K19" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L19" t="n">
         <v>252.357018227036</v>
@@ -36060,7 +36060,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088247</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>404.3465691990062</v>
       </c>
       <c r="L21" t="n">
-        <v>234.8781591644923</v>
+        <v>311.595329988125</v>
       </c>
       <c r="M21" t="n">
         <v>293.6441253511066</v>
@@ -36212,7 +36212,7 @@
         <v>315.9701983673684</v>
       </c>
       <c r="O21" t="n">
-        <v>343.3239349665037</v>
+        <v>266.606764142871</v>
       </c>
       <c r="P21" t="n">
         <v>512.9098515914252</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.9798004546314</v>
+        <v>18.97980045463135</v>
       </c>
       <c r="K22" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L22" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M22" t="n">
         <v>276.003954109454</v>
@@ -36294,10 +36294,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P22" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088244</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.97980045463139</v>
+        <v>18.97980045463138</v>
       </c>
       <c r="K25" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L25" t="n">
         <v>252.357018227036</v>
@@ -36534,7 +36534,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088248</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>404.3465691990062</v>
       </c>
       <c r="L27" t="n">
-        <v>304.9697882939555</v>
+        <v>311.595329988125</v>
       </c>
       <c r="M27" t="n">
         <v>293.6441253511066</v>
@@ -36695,7 +36695,7 @@
         <v>289.636582500183</v>
       </c>
       <c r="R27" t="n">
-        <v>6.625541694169399</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.97980045463138</v>
+        <v>18.97980045463139</v>
       </c>
       <c r="K28" t="n">
-        <v>155.649218955782</v>
+        <v>155.6492189557821</v>
       </c>
       <c r="L28" t="n">
         <v>252.357018227036</v>
@@ -36771,7 +36771,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.97392575088248</v>
+        <v>44.97392575088249</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>404.3465691990062</v>
       </c>
       <c r="L30" t="n">
-        <v>304.9697882939555</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M30" t="n">
         <v>293.6441253511066</v>
@@ -36926,13 +36926,13 @@
         <v>266.606764142871</v>
       </c>
       <c r="P30" t="n">
-        <v>512.9098515914252</v>
+        <v>218.7866771115985</v>
       </c>
       <c r="Q30" t="n">
         <v>289.636582500183</v>
       </c>
       <c r="R30" t="n">
-        <v>6.625541694169399</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.97980045463132</v>
+        <v>18.97980045463133</v>
       </c>
       <c r="K31" t="n">
         <v>155.649218955782</v>
@@ -37002,13 +37002,13 @@
         <v>275.1779362375661</v>
       </c>
       <c r="O31" t="n">
-        <v>238.7870074389144</v>
+        <v>238.7870074389145</v>
       </c>
       <c r="P31" t="n">
         <v>182.0659045918769</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.97392575088242</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.22551106590676</v>
+        <v>79.22551106590674</v>
       </c>
       <c r="K34" t="n">
         <v>215.8949295670574</v>
@@ -37239,13 +37239,13 @@
         <v>335.4236468488415</v>
       </c>
       <c r="O34" t="n">
-        <v>299.0327180501899</v>
+        <v>299.0327180501898</v>
       </c>
       <c r="P34" t="n">
-        <v>242.3116152031524</v>
+        <v>242.3116152031523</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.2196363621579</v>
+        <v>105.2196363621578</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.22551106590673</v>
+        <v>79.22551106590674</v>
       </c>
       <c r="K37" t="n">
         <v>215.8949295670574</v>
       </c>
       <c r="L37" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383114</v>
       </c>
       <c r="M37" t="n">
         <v>336.2496647207294</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>161.7442746751683</v>
+        <v>86.41930079361231</v>
       </c>
       <c r="K39" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L39" t="n">
-        <v>311.595329988125</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M39" t="n">
-        <v>293.6441253511066</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N39" t="n">
-        <v>315.9701983673684</v>
+        <v>795.312572710922</v>
       </c>
       <c r="O39" t="n">
         <v>266.606764142871</v>
       </c>
       <c r="P39" t="n">
-        <v>512.9098515914252</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q39" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.22551106590673</v>
+        <v>79.22551106590672</v>
       </c>
       <c r="K40" t="n">
         <v>215.8949295670574</v>
@@ -37801,7 +37801,7 @@
         <v>337.1330936743449</v>
       </c>
       <c r="R41" t="n">
-        <v>52.05020194223377</v>
+        <v>52.05020194223449</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>161.7442746751683</v>
+        <v>86.41930079361231</v>
       </c>
       <c r="K42" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L42" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M42" t="n">
-        <v>293.6441253511066</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N42" t="n">
-        <v>315.9701983673684</v>
+        <v>795.312572710922</v>
       </c>
       <c r="O42" t="n">
-        <v>343.3239349665037</v>
+        <v>266.606764142871</v>
       </c>
       <c r="P42" t="n">
-        <v>512.9098515914252</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q42" t="n">
-        <v>289.636582500183</v>
+        <v>79.55929476433388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.22551106590676</v>
+        <v>79.22551106590672</v>
       </c>
       <c r="K43" t="n">
         <v>215.8949295670574</v>
       </c>
       <c r="L43" t="n">
-        <v>312.6027288383114</v>
+        <v>312.6027288383113</v>
       </c>
       <c r="M43" t="n">
         <v>336.2496647207294</v>
@@ -37950,13 +37950,13 @@
         <v>335.4236468488415</v>
       </c>
       <c r="O43" t="n">
-        <v>299.0327180501899</v>
+        <v>299.0327180501898</v>
       </c>
       <c r="P43" t="n">
-        <v>242.3116152031524</v>
+        <v>242.3116152031523</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.2196363621579</v>
+        <v>105.2196363621578</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>689.1581760554523</v>
       </c>
       <c r="M44" t="n">
-        <v>783.5955457828144</v>
+        <v>783.5955457828129</v>
       </c>
       <c r="N44" t="n">
         <v>781.4951454366786</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>161.7442746751683</v>
+        <v>35.65323933475943</v>
       </c>
       <c r="K45" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L45" t="n">
-        <v>304.9697882939555</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M45" t="n">
-        <v>293.6441253511066</v>
+        <v>759.3491891011065</v>
       </c>
       <c r="N45" t="n">
-        <v>315.9701983673684</v>
+        <v>795.312572710922</v>
       </c>
       <c r="O45" t="n">
         <v>266.606764142871</v>
       </c>
       <c r="P45" t="n">
-        <v>512.9098515914252</v>
+        <v>194.447082951488</v>
       </c>
       <c r="Q45" t="n">
-        <v>289.636582500183</v>
+        <v>130.325356223187</v>
       </c>
       <c r="R45" t="n">
-        <v>6.625541694169399</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.22551106590674</v>
+        <v>79.22551106590676</v>
       </c>
       <c r="K46" t="n">
         <v>215.8949295670574</v>
@@ -38187,13 +38187,13 @@
         <v>335.4236468488415</v>
       </c>
       <c r="O46" t="n">
-        <v>299.0327180501898</v>
+        <v>299.0327180501899</v>
       </c>
       <c r="P46" t="n">
-        <v>242.3116152031523</v>
+        <v>242.3116152031524</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.2196363621578</v>
+        <v>105.2196363621579</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
